--- a/app/config/tables/QPS/forms/ronda_1/ronda_1.xlsx
+++ b/app/config/tables/QPS/forms/ronda_1/ronda_1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\tables\QPS\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\tables\QPS\forms\ronda_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F8234B-A8BD-4B40-9493-3FFFF140217F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF0A761-4A1F-47AA-97A8-7A9C4E085A47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="queries" sheetId="5" r:id="rId4"/>
     <sheet name="model" sheetId="4" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$C$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$D$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="204">
   <si>
     <t>type</t>
   </si>
@@ -57,9 +58,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -112,9 +110,6 @@
   </si>
   <si>
     <t>barcode</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>Escanea o codigo de barra</t>
@@ -349,15 +344,9 @@
     <t>Tem algun efeito adverso</t>
   </si>
   <si>
-    <t>selected(data('tem_adverso'),'1')</t>
-  </si>
-  <si>
     <t xml:space="preserve">if </t>
   </si>
   <si>
-    <t>selected(data('ef_adverso'),'7')</t>
-  </si>
-  <si>
     <t>esp_ef_adverso_r1</t>
   </si>
   <si>
@@ -416,13 +405,281 @@
   </si>
   <si>
     <t>esp_ef_adverso_r4</t>
+  </si>
+  <si>
+    <t>id_paciente</t>
+  </si>
+  <si>
+    <t>tem_adverso_r1</t>
+  </si>
+  <si>
+    <t>selected(data('ef_adverso_r1'),'7')</t>
+  </si>
+  <si>
+    <t>custom_date</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>elementType</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Makes the date widget DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>data('tem_adverso_r1')=='1'</t>
+  </si>
+  <si>
+    <t>branch_label</t>
+  </si>
+  <si>
+    <t>sticker</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>codigo_sticker</t>
+  </si>
+  <si>
+    <t>string-length(data('sticker'))</t>
+  </si>
+  <si>
+    <t>data('codigo_stiker')&lt;1</t>
+  </si>
+  <si>
+    <t>begin screen</t>
+  </si>
+  <si>
+    <t>letra_sticker</t>
+  </si>
+  <si>
+    <t>Letras de códigos</t>
+  </si>
+  <si>
+    <t>escrever só as letras em maiuscula e sem espaco ou trassos</t>
+  </si>
+  <si>
+    <t>numero_sticker</t>
+  </si>
+  <si>
+    <t>Números de código</t>
+  </si>
+  <si>
+    <t>escrever os números</t>
+  </si>
+  <si>
+    <t>codigo_manual</t>
+  </si>
+  <si>
+    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
+  </si>
+  <si>
+    <t>end screen</t>
+  </si>
+  <si>
+    <t>if (string-length(data('sticker'))&gt;1,data('codigo_sticker'),data('codigo_manual'))</t>
+  </si>
+  <si>
+    <t>goto ending</t>
+  </si>
+  <si>
+    <t>ineligible</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Obrigado pelo seu tempo em responder a estas perguntas. Com base em algumas das respostas que você deu, você é inelegível para fazer parte do estudo. Isso de modo algum afeta o cuidado que você receberá aqui nesta clínica. Posso responder a quaisquer perguntas que você possa ter?</t>
+  </si>
+  <si>
+    <t>refuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple </t>
+  </si>
+  <si>
+    <t>Eu entendo que você não quer participar deste estudo. Você poderia me dizer porque você não gostaria de participar? Marque todos que se aplicam:</t>
+  </si>
+  <si>
+    <t>if // ref_reason</t>
+  </si>
+  <si>
+    <t>Especifica</t>
+  </si>
+  <si>
+    <t>end if // ref_reason</t>
+  </si>
+  <si>
+    <t>Diga: Obrigado por me informar porque você não quer participar. É importante que saibamos por que as mulheres podem se sentir assim. Isso de modo algum afetará os cuidados que você, seus filhos ou seu parceiro receberão na clínica.</t>
+  </si>
+  <si>
+    <t>ending</t>
+  </si>
+  <si>
+    <t>survey_complete</t>
+  </si>
+  <si>
+    <t>A exibição agora está completa, por favor, vá para a próxima página para finalizar suas respostas.</t>
+  </si>
+  <si>
+    <t>selected(data('ef_adverso_r1'),'5') || selected(data('ef_adverso_r2'),'6')</t>
+  </si>
+  <si>
+    <t>exclusao</t>
+  </si>
+  <si>
+    <t>Agradecer pelo tempo, e explicar que a criança será excluida no estudo e não votará a receber qps este ano</t>
+  </si>
+  <si>
+    <t>Os pais e a criança aceitaram a tomar o medicamento</t>
+  </si>
+  <si>
+    <t>data('consentimento')=='2'</t>
+  </si>
+  <si>
+    <t>goto refuse</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>Febre ou história de febre</t>
+  </si>
+  <si>
+    <t>TDR Realizado</t>
+  </si>
+  <si>
+    <t>TDR +</t>
+  </si>
+  <si>
+    <t>Tratamenco com ACT</t>
+  </si>
+  <si>
+    <t>DIAGNÓSTICO E TRATAMENTO DO PALUDISMO: A QPS é integrado com o diagnóstico e tratamento do paludismo a nível da comunidade pelo ASC. Os resultados serão relatados pelos ASC em seus formulários de relatórios mensais. Qualquer criança que tenha febre com um TDR negativo deve ser transferida para o centro de saúde. 
+Indique se Sim nas células das colunas correspondentes relacionadas a suspeita do paludismo, teste e tratamento com ACT.</t>
+  </si>
+  <si>
+    <t>febre_r1</t>
+  </si>
+  <si>
+    <t>TDR_positivo_r1</t>
+  </si>
+  <si>
+    <t>TDR_r1</t>
+  </si>
+  <si>
+    <t>dx_tto_r1</t>
+  </si>
+  <si>
+    <t>data('febre_r1')=='1'</t>
+  </si>
+  <si>
+    <t>goto tranferencia</t>
+  </si>
+  <si>
+    <t>data('TDR_r1')=='2')</t>
+  </si>
+  <si>
+    <t>data('TDR_positivo_r1')=='2'</t>
+  </si>
+  <si>
+    <t>if //consentimento</t>
+  </si>
+  <si>
+    <t>end if // consentimento</t>
+  </si>
+  <si>
+    <t>data('tto_ACT')=='2'</t>
+  </si>
+  <si>
+    <t>transferencia</t>
+  </si>
+  <si>
+    <t>Falta de TDR</t>
+  </si>
+  <si>
+    <t>Efeito adversos</t>
+  </si>
+  <si>
+    <t>Febre com TDR negativo</t>
+  </si>
+  <si>
+    <t>Falta de ACT</t>
+  </si>
+  <si>
+    <t>outros</t>
+  </si>
+  <si>
+    <t>tranferencia_r1</t>
+  </si>
+  <si>
+    <t>A criança foi tranferido</t>
+  </si>
+  <si>
+    <t>data('transferencia_r1')=='1'</t>
+  </si>
+  <si>
+    <t>selected(data('ef_adverso_r1'),'7') || selected(data('ef_adverso_r1'),'5') || selected(data('ef_adverso_r2'),'6')</t>
+  </si>
+  <si>
+    <t>razao</t>
+  </si>
+  <si>
+    <t>Esqueceu-se</t>
+  </si>
+  <si>
+    <t>A criança teve reação</t>
+  </si>
+  <si>
+    <t>Não queriam que a criança tomasse</t>
+  </si>
+  <si>
+    <t>outra razão</t>
+  </si>
+  <si>
+    <t>razao_r1</t>
+  </si>
+  <si>
+    <t>inelegivel_r1</t>
+  </si>
+  <si>
+    <t>selected(data('razao_r1'),'4')</t>
+  </si>
+  <si>
+    <t>esp_razao_r1</t>
+  </si>
+  <si>
+    <t>consentimento_r1</t>
+  </si>
+  <si>
+    <t>tto_ACT_r1</t>
+  </si>
+  <si>
+    <t>motivo_r1</t>
+  </si>
+  <si>
+    <t>refusal_statement_r1</t>
+  </si>
+  <si>
+    <t>exclusao_r1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,16 +730,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -497,6 +775,30 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -516,7 +818,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -544,9 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -576,19 +875,36 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1010,847 +1326,1334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V112"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:W143"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD16"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="12" customWidth="1"/>
-    <col min="6" max="6" width="63" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="7"/>
-    <col min="11" max="16384" width="10.75" style="2"/>
+    <col min="1" max="1" width="13.0625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="63" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="7"/>
+    <col min="12" max="13" width="10.75" style="2"/>
+    <col min="14" max="14" width="40.875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="9"/>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D2" s="9"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="10" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:23" s="27" customFormat="1" ht="31.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="N5" s="29"/>
+    </row>
+    <row r="6" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:23" s="27" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="27" customFormat="1" ht="31.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="D12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="13" t="s">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C24" s="11"/>
+      <c r="D24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="C25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B27" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="2:11" ht="110.25" x14ac:dyDescent="0.5">
+      <c r="C34" s="11"/>
+      <c r="D34" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C37" s="11"/>
+      <c r="D37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C41" s="11"/>
+      <c r="D41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A56" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C58" s="11"/>
+      <c r="D58" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C61" s="11"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" ht="63" x14ac:dyDescent="0.5">
+      <c r="A63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B64" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="D67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="19"/>
-      <c r="D21"/>
-      <c r="E21" s="21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="19"/>
-      <c r="D22"/>
-      <c r="E22" s="21"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="19"/>
-      <c r="D23"/>
-      <c r="E23" s="21"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="13"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="12"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="12"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="12"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="13"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="12"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="13"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="J68" s="6"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="J69" s="6"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="14"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="14"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="13"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
+      <c r="F67" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B68" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="D69" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="C71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="C74" s="11"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="C75" s="11"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="D77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="C79" s="11"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="C80" s="11"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C81" s="11"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C82" s="11"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C83" s="11"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C84" s="11"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C85" s="11"/>
       <c r="E85" s="13"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C86" s="11"/>
       <c r="E86" s="13"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
       <c r="E87" s="13"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="13"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
+      <c r="F87" s="12"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C88" s="11"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C89" s="11"/>
       <c r="E89" s="13"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C90" s="11"/>
       <c r="E90" s="13"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
+      <c r="F90" s="12"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C91" s="11"/>
       <c r="E91" s="13"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
+      <c r="F91" s="12"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C92" s="11"/>
       <c r="E92" s="13"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
+      <c r="F92" s="12"/>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C93" s="11"/>
       <c r="E93" s="13"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
+      <c r="F93" s="12"/>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C94" s="11"/>
       <c r="E94" s="13"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F94" s="12"/>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
       <c r="E95" s="13"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="13"/>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="13"/>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
+      <c r="F95" s="12"/>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C96" s="11"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C97" s="11"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="16"/>
       <c r="E98" s="13"/>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="16"/>
       <c r="E99" s="13"/>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="16"/>
       <c r="E100" s="13"/>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="16"/>
       <c r="E101" s="13"/>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="16"/>
       <c r="E102" s="13"/>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="16"/>
       <c r="E103" s="13"/>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="16"/>
       <c r="E104" s="13"/>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="16"/>
       <c r="E105" s="13"/>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="13"/>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="13"/>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="13"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="13"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="16"/>
       <c r="E108" s="13"/>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="16"/>
       <c r="E109" s="13"/>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="16"/>
       <c r="E110" s="13"/>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="16"/>
       <c r="E111" s="13"/>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="16"/>
       <c r="E112" s="13"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="12"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="12"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="12"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="12"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="12"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="12"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="12"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="12"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="12"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="12"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="12"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="12"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="12"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="12"/>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="12"/>
+    </row>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="12"/>
+    </row>
+    <row r="131" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="12"/>
+    </row>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="12"/>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="12"/>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="12"/>
+    </row>
+    <row r="135" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="12"/>
+    </row>
+    <row r="136" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="12"/>
+    </row>
+    <row r="137" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="12"/>
+    </row>
+    <row r="138" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="12"/>
+    </row>
+    <row r="139" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="12"/>
+    </row>
+    <row r="140" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="12"/>
+    </row>
+    <row r="141" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="12"/>
+    </row>
+    <row r="142" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="12"/>
+    </row>
+    <row r="143" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1864,13 +2667,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -1878,682 +2682,767 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="2">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C26" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
@@ -2570,60 +3459,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="B3">
         <v>2019070600</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2638,13 +3528,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -2652,61 +3543,61 @@
     <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2716,445 +3607,454 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B66"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3164,4 +4064,53 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEE19C4-0725-4F28-B24F-E00065190F0E}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="17.6875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>